--- a/biology/Botanique/Francesca_(rose)/Francesca_(rose).xlsx
+++ b/biology/Botanique/Francesca_(rose)/Francesca_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Francesca' est un cultivar de rosier obtenu en 1922 par le fameux rosiériste anglais Joseph Hardwick Pemberton. Il est issu d'un croisement 'Danaë' (Pemberton, 1913) × 'Sunburst' (Pernet-Ducher, 1904/1911)[1].
+'Francesca' est un cultivar de rosier obtenu en 1922 par le fameux rosiériste anglais Joseph Hardwick Pemberton. Il est issu d'un croisement 'Danaë' (Pemberton, 1913) × 'Sunburst' (Pernet-Ducher, 1904/1911).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de Rosa moschata présente un grand buisson dense au feuillage ample d'une hauteur de 185 cm à 305 cm pour une largeur de 185 cm. Ses fleurs sont d'un jaune abricot, devenant de plus en plus pâles au fur et à mesure[2], de taille moyenne, semi-doubles (9-16 pétales) et parfois penchées en fin de floraison, s'ouvrant sur de larges étamines dorées. Elles exhalent un léger parfum de thé et la floraison en gros bouquets est remontante.
-Sa zone de rusticité est de 6b à 10b; ce cultivar supporte donc les hivers rigoureux. Il est de plus vigoureux et résiste aux maladies[1]. Cette variété est encore très présente dans les catalogues outre-manche et en Belgique[3] où elle est appréciée pour sa résistance et le coloris de ses fleurs. Elle est parfaite en buisson isolé et peut se traiter en petit grimpant[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de Rosa moschata présente un grand buisson dense au feuillage ample d'une hauteur de 185 cm à 305 cm pour une largeur de 185 cm. Ses fleurs sont d'un jaune abricot, devenant de plus en plus pâles au fur et à mesure, de taille moyenne, semi-doubles (9-16 pétales) et parfois penchées en fin de floraison, s'ouvrant sur de larges étamines dorées. Elles exhalent un léger parfum de thé et la floraison en gros bouquets est remontante.
+Sa zone de rusticité est de 6b à 10b; ce cultivar supporte donc les hivers rigoureux. Il est de plus vigoureux et résiste aux maladies. Cette variété est encore très présente dans les catalogues outre-manche et en Belgique où elle est appréciée pour sa résistance et le coloris de ses fleurs. Elle est parfaite en buisson isolé et peut se traiter en petit grimpant.
 </t>
         </is>
       </c>
